--- a/SuppXLS/Demands/ScenDem_DEM_SETs.xlsx
+++ b/SuppXLS/Demands/ScenDem_DEM_SETs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{8B08A6C4-EA9F-4949-B255-79E78B46908B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C5B5F2A-1FA1-4217-A7E3-F2AE6ECC92E1}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0C9E4F0C-E372-46F3-AD2E-F7462E4038F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04DA3378-00A7-435E-A0C0-6D73877D2150}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{160EB8D6-37B5-4ECA-BC09-5923A721DAB9}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>* declare the demand drives and initial allocations</t>
   </si>
@@ -128,83 +128,83 @@
     <t>\~2050</t>
   </si>
   <si>
-    <t>ETH</t>
-  </si>
-  <si>
-    <t>CEMENTHEAT</t>
-  </si>
-  <si>
-    <t>MANHEATG_MVA_INDUCED</t>
-  </si>
-  <si>
-    <t>MANELCG_INDUCED</t>
-  </si>
-  <si>
-    <t>CEMENTHEAT_INDUCED</t>
-  </si>
-  <si>
-    <t>Attribute</t>
-  </si>
-  <si>
-    <t>CommName</t>
-  </si>
-  <si>
-    <t>*Unit</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>Demand Commodity Name</t>
-  </si>
-  <si>
-    <t>Demand Unit</t>
-  </si>
-  <si>
-    <t>Demand Value</t>
-  </si>
-  <si>
-    <t>*Units</t>
-  </si>
-  <si>
-    <t>GWh</t>
-  </si>
-  <si>
-    <t>Demand</t>
-  </si>
-  <si>
-    <t>MANHEAT</t>
-  </si>
-  <si>
-    <t>MANELC</t>
-  </si>
-  <si>
-    <t>Total energy consumption</t>
-  </si>
-  <si>
-    <t>Normalized share</t>
-  </si>
-  <si>
-    <t>Ggrowth rate between 2021-2025</t>
-  </si>
-  <si>
-    <t>Ggrowth rate between 2025-2030</t>
-  </si>
-  <si>
-    <t>Ggrowth rate between 2031-2050</t>
-  </si>
-  <si>
-    <t>Manufacturing Growth target</t>
-  </si>
-  <si>
-    <t>Growth rate between 2016-2023</t>
+    <t>\~2023</t>
+  </si>
+  <si>
+    <t>\~2024</t>
+  </si>
+  <si>
+    <t>\~2026</t>
+  </si>
+  <si>
+    <t>\~2027</t>
+  </si>
+  <si>
+    <t>\~2028</t>
+  </si>
+  <si>
+    <t>MVA</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>\~2029</t>
+  </si>
+  <si>
+    <t>\~2031</t>
+  </si>
+  <si>
+    <t>\~2032</t>
+  </si>
+  <si>
+    <t>\~2033</t>
+  </si>
+  <si>
+    <t>\~2034</t>
+  </si>
+  <si>
+    <t>\~2036</t>
+  </si>
+  <si>
+    <t>\~2037</t>
+  </si>
+  <si>
+    <t>\~2038</t>
+  </si>
+  <si>
+    <t>\~2039</t>
+  </si>
+  <si>
+    <t>\~2041</t>
+  </si>
+  <si>
+    <t>\~2042</t>
+  </si>
+  <si>
+    <t>\~2043</t>
+  </si>
+  <si>
+    <t>\~2044</t>
+  </si>
+  <si>
+    <t>\~2046</t>
+  </si>
+  <si>
+    <t>\~2047</t>
+  </si>
+  <si>
+    <t>\~2048</t>
+  </si>
+  <si>
+    <t>\~2049</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -236,6 +236,10 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -295,16 +299,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>600074</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1523999</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285749</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -319,8 +323,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="838199" y="1647825"/>
-          <a:ext cx="8220075" cy="1200150"/>
+          <a:off x="2371724" y="3114675"/>
+          <a:ext cx="10744200" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -729,10 +733,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D947983-E6F1-4569-8577-20F46CF180DE}">
-  <dimension ref="A1:AF43"/>
+  <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -740,7 +744,7 @@
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.2">
@@ -775,634 +779,187 @@
         <v>5</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="M6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="R6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="W6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="X6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="AB6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="6">
-        <f>E41</f>
         <v>1</v>
       </c>
       <c r="E7" s="6">
-        <f t="shared" ref="E7:J7" si="0">F41</f>
-        <v>1.659845158569847</v>
+        <v>1.1839999999999997</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="0"/>
-        <v>4.6540065532424837</v>
+        <v>1.4018559999999995</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="0"/>
-        <v>7.3265174166767775</v>
+        <v>1.6597975039999995</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="0"/>
-        <v>11.533687553463022</v>
+        <v>2.0398911324159998</v>
       </c>
       <c r="I7" s="6">
-        <f t="shared" si="0"/>
-        <v>18.156777772494095</v>
+        <v>2.5070262017392637</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" si="0"/>
-        <v>28.583102979996355</v>
-      </c>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="6">
-        <f t="shared" ref="D8:J9" si="1">E42</f>
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6597215270719585</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>4.6536599053648855</v>
-      </c>
-      <c r="G8" s="6">
-        <f t="shared" si="1"/>
-        <v>7.3259717101584005</v>
-      </c>
-      <c r="H8" s="6">
-        <f t="shared" si="1"/>
-        <v>11.532828481120612</v>
-      </c>
-      <c r="I8" s="6">
-        <f t="shared" si="1"/>
-        <v>18.155425387531409</v>
-      </c>
-      <c r="J8" s="6">
-        <f t="shared" si="1"/>
-        <v>28.580974003195433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <f t="shared" si="1"/>
-        <v>1.6598096540757792</v>
-      </c>
-      <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>4.6539070029035816</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="1"/>
-        <v>7.3263607006766049</v>
-      </c>
-      <c r="H9" s="6">
-        <f t="shared" si="1"/>
-        <v>11.533440845064225</v>
-      </c>
-      <c r="I9" s="6">
-        <f t="shared" si="1"/>
-        <v>18.156389394574997</v>
-      </c>
-      <c r="J9" s="6">
-        <f t="shared" si="1"/>
-        <v>28.582491580429984</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22">
-        <v>2022</v>
-      </c>
-      <c r="F22">
-        <v>2025</v>
-      </c>
-      <c r="G22">
-        <v>2030</v>
-      </c>
-      <c r="H22">
-        <v>2035</v>
-      </c>
-      <c r="I22">
-        <v>2040</v>
-      </c>
-      <c r="J22">
-        <v>2045</v>
-      </c>
-      <c r="K22">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>23</v>
-      </c>
-      <c r="H23" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" t="s">
-        <v>23</v>
-      </c>
-      <c r="K23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" t="s">
-        <v>25</v>
-      </c>
-      <c r="F24" t="s">
-        <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24" t="s">
-        <v>25</v>
-      </c>
-      <c r="J24" t="s">
-        <v>25</v>
-      </c>
-      <c r="K24" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25">
-        <v>2605.1202084096003</v>
-      </c>
-      <c r="F25">
-        <f>F33*F35</f>
-        <v>4324.096165421146</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ref="G25:K25" si="2">G33*G35</f>
-        <v>12124.246521922705</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="2"/>
-        <v>19086.458579449572</v>
-      </c>
-      <c r="I25">
-        <f t="shared" si="2"/>
-        <v>30046.642523008799</v>
-      </c>
-      <c r="J25">
-        <f t="shared" si="2"/>
-        <v>47300.588694726619</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="2"/>
-        <v>74462.41919224117</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26">
-        <v>2861.5612011470998</v>
-      </c>
-      <c r="F26">
-        <f>F33*F36</f>
-        <v>4749.3947265777324</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ref="G26:K26" si="3">G33*G36</f>
-        <v>13316.732628526041</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
-        <v>20963.716406490545</v>
-      </c>
-      <c r="I26">
-        <f t="shared" si="3"/>
-        <v>33001.894521058981</v>
-      </c>
-      <c r="J26">
-        <f t="shared" si="3"/>
-        <v>51952.860879280932</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="3"/>
-        <v>81786.20629853796</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" t="s">
-        <v>25</v>
-      </c>
-      <c r="E27">
-        <v>7676.2275585426005</v>
-      </c>
-      <c r="F27">
-        <f>F33*F37</f>
-        <v>12741.076608551557</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ref="G27:K27" si="4">G33*G37</f>
-        <v>35724.449190582869</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="4"/>
-        <v>56238.811914357233</v>
-      </c>
-      <c r="I27">
-        <f t="shared" si="4"/>
-        <v>88533.316459702866</v>
-      </c>
-      <c r="J27">
-        <f t="shared" si="4"/>
-        <v>139372.5766342672</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="4"/>
-        <v>219405.7095615085</v>
-      </c>
-    </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="M31" t="s">
-        <v>31</v>
-      </c>
-      <c r="N31" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="M32" t="s">
-        <v>34</v>
-      </c>
-      <c r="N32" t="s">
-        <v>34</v>
-      </c>
-      <c r="O32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="D33" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33">
-        <f>E25+E26+E27</f>
-        <v>13142.908968099302</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ref="F33" si="5">$E33*(1+$M33)^(F22-$E22)</f>
-        <v>21814.567500550434</v>
-      </c>
-      <c r="G33">
-        <f>$F33*(1+$N33)^(G22-$F22)</f>
-        <v>61165.428341031613</v>
-      </c>
-      <c r="H33">
-        <f>$G33*(1+$O33)^(H22-$G22)</f>
-        <v>96288.986900297343</v>
-      </c>
-      <c r="I33">
-        <f t="shared" ref="I33:K33" si="6">$G33*(1+$O33)^(I22-$G22)</f>
-        <v>151581.85350377063</v>
-      </c>
-      <c r="J33">
-        <f t="shared" si="6"/>
-        <v>238626.02620827474</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="6"/>
-        <v>375654.33505228761</v>
-      </c>
-      <c r="M33">
-        <v>0.184</v>
-      </c>
-      <c r="N33">
-        <v>0.22900000000000001</v>
-      </c>
-      <c r="O33">
-        <v>9.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E35">
-        <v>0.19822057738765797</v>
-      </c>
-      <c r="F35">
-        <v>0.19822057738765797</v>
-      </c>
-      <c r="G35">
-        <v>0.19822057738765797</v>
-      </c>
-      <c r="H35">
-        <v>0.19822057738765797</v>
-      </c>
-      <c r="I35">
-        <v>0.19822057738765797</v>
-      </c>
-      <c r="J35">
-        <v>0.19822057738765797</v>
-      </c>
-      <c r="K35">
-        <v>0.19822057738765797</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>30</v>
-      </c>
-      <c r="D36" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36">
-        <v>0.21771665775440627</v>
-      </c>
-      <c r="F36">
-        <v>0.21771665775440627</v>
-      </c>
-      <c r="G36">
-        <v>0.21771665775440627</v>
-      </c>
-      <c r="H36">
-        <v>0.21771665775440627</v>
-      </c>
-      <c r="I36">
-        <v>0.21771665775440627</v>
-      </c>
-      <c r="J36">
-        <v>0.21771665775440627</v>
-      </c>
-      <c r="K36">
-        <v>0.21771665775440627</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37">
-        <v>0.58406276485793585</v>
-      </c>
-      <c r="F37">
-        <v>0.58406276485793585</v>
-      </c>
-      <c r="G37">
-        <v>0.58406276485793585</v>
-      </c>
-      <c r="H37">
-        <v>0.58406276485793585</v>
-      </c>
-      <c r="I37">
-        <v>0.58406276485793585</v>
-      </c>
-      <c r="J37">
-        <v>0.58406276485793585</v>
-      </c>
-      <c r="K37">
-        <v>0.58406276485793585</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C41" t="str">
-        <f>C7</f>
-        <v>MANHEATG_MVA_INDUCED</v>
-      </c>
-      <c r="E41">
-        <f>E25/$E25</f>
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <f>F25/$E25</f>
-        <v>1.659845158569847</v>
-      </c>
-      <c r="G41">
-        <f t="shared" ref="G41:K41" si="7">G25/$E25</f>
-        <v>4.6540065532424837</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="7"/>
-        <v>7.3265174166767775</v>
-      </c>
-      <c r="I41">
-        <f t="shared" si="7"/>
-        <v>11.533687553463022</v>
-      </c>
-      <c r="J41">
-        <f t="shared" si="7"/>
-        <v>18.156777772494095</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="7"/>
-        <v>28.583102979996355</v>
-      </c>
-    </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C42" t="str">
-        <f t="shared" ref="C42:C43" si="8">C8</f>
-        <v>MANELCG_INDUCED</v>
-      </c>
-      <c r="E42">
-        <f t="shared" ref="E42:E43" si="9">E26/$E26</f>
-        <v>1</v>
-      </c>
-      <c r="F42">
-        <f t="shared" ref="F42:K43" si="10">F26/$E26</f>
-        <v>1.6597215270719585</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="10"/>
-        <v>4.6536599053648855</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="10"/>
-        <v>7.3259717101584005</v>
-      </c>
-      <c r="I42">
-        <f t="shared" si="10"/>
-        <v>11.532828481120612</v>
-      </c>
-      <c r="J42">
-        <f t="shared" si="10"/>
-        <v>18.155425387531409</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="10"/>
-        <v>28.580974003195433</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C43" t="str">
-        <f t="shared" si="8"/>
-        <v>CEMENTHEAT_INDUCED</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="10"/>
-        <v>1.6598096540757792</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="10"/>
-        <v>4.6539070029035816</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="10"/>
-        <v>7.3263607006766049</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="10"/>
-        <v>11.533440845064225</v>
-      </c>
-      <c r="J43">
-        <f t="shared" si="10"/>
-        <v>18.156389394574997</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="10"/>
-        <v>28.582491580429984</v>
+        <v>3.0811352019375553</v>
+      </c>
+      <c r="K7" s="6">
+        <v>3.7867151631812557</v>
+      </c>
+      <c r="L7" s="6">
+        <v>4.6538729355497628</v>
+      </c>
+      <c r="M7" s="6">
+        <v>5.09599086442699</v>
+      </c>
+      <c r="N7" s="6">
+        <v>5.5801099965475549</v>
+      </c>
+      <c r="O7" s="6">
+        <v>6.1102204462195715</v>
+      </c>
+      <c r="P7" s="6">
+        <v>6.6906913886104311</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>7.3263070705284212</v>
+      </c>
+      <c r="R7" s="6">
+        <v>8.0223062422286215</v>
+      </c>
+      <c r="S7" s="6">
+        <v>8.784425335240341</v>
+      </c>
+      <c r="T7" s="6">
+        <v>9.6189457420881759</v>
+      </c>
+      <c r="U7" s="6">
+        <v>10.532745587586552</v>
+      </c>
+      <c r="V7" s="6">
+        <v>11.533356418407273</v>
+      </c>
+      <c r="W7" s="6">
+        <v>12.629025278155964</v>
+      </c>
+      <c r="X7" s="6">
+        <v>13.828782679580783</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>15.142517034140955</v>
+      </c>
+      <c r="Z7" s="6">
+        <v>16.581056152384345</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>18.156256486860858</v>
+      </c>
+      <c r="AB7" s="6">
+        <v>19.881100853112642</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>21.769805434158343</v>
+      </c>
+      <c r="AD7" s="6">
+        <v>23.837936950403385</v>
+      </c>
+      <c r="AE7" s="6">
+        <v>26.102540960691705</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>28.582282351957417</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/SuppXLS/Demands/ScenDem_DEM_SETs.xlsx
+++ b/SuppXLS/Demands/ScenDem_DEM_SETs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SuppXLS/Demands/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\Demands\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0C9E4F0C-E372-46F3-AD2E-F7462E4038F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04DA3378-00A7-435E-A0C0-6D73877D2150}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C2994B-FA16-4236-88E3-60DB0C1A4E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{160EB8D6-37B5-4ECA-BC09-5923A721DAB9}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{160EB8D6-37B5-4ECA-BC09-5923A721DAB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Driver" sheetId="1" r:id="rId1"/>
@@ -95,9 +95,6 @@
     <t>* declare the demand drives and initial allocations</t>
   </si>
   <si>
-    <t>~DRVR_Scenario: : DEM_Ref</t>
-  </si>
-  <si>
     <t>~DRVR_Table</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>\~2049</t>
+  </si>
+  <si>
+    <t>~DRVR_Scenario: : DEM_SETs</t>
   </si>
 </sst>
 </file>
@@ -240,6 +240,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -736,7 +737,7 @@
   <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -755,7 +756,7 @@
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -765,110 +766,110 @@
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B5" s="2"/>
       <c r="C5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5" t="s">
+      <c r="H6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="5" t="s">
+      <c r="M6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="N6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" s="5" t="s">
+      <c r="R6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="S6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="U6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="T6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="U6" s="5" t="s">
+      <c r="W6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V6" s="5" t="s">
+      <c r="X6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="W6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z6" s="5" t="s">
+      <c r="AB6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA6" s="5" t="s">
+      <c r="AC6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AF6" s="5" t="s">
         <v>10</v>
-      </c>
-      <c r="AB6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC6" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF6" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>

--- a/SuppXLS/Demands/ScenDem_DEM_SETs.xlsx
+++ b/SuppXLS/Demands/ScenDem_DEM_SETs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SuppXLS\Demands\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/The Two scenarios/Demands/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C2994B-FA16-4236-88E3-60DB0C1A4E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{35C2994B-FA16-4236-88E3-60DB0C1A4E06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B70305-235E-4005-AAA4-BB96B56FABED}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{160EB8D6-37B5-4ECA-BC09-5923A721DAB9}"/>
   </bookViews>
@@ -143,9 +143,6 @@
     <t>MVA</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>\~2029</t>
   </si>
   <si>
@@ -198,6 +195,9 @@
   </si>
   <si>
     <t>~DRVR_Scenario: : DEM_SETs</t>
+  </si>
+  <si>
+    <t>ETH</t>
   </si>
 </sst>
 </file>
@@ -737,7 +737,7 @@
   <dimension ref="A1:AF7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -756,7 +756,7 @@
     <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B3" s="2"/>
       <c r="C3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
@@ -798,67 +798,67 @@
         <v>15</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="M6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="O6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="P6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="Q6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="R6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="S6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="T6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="U6" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="U6" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="V6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="W6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="X6" s="5" t="s">
+      <c r="Y6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="Z6" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="Z6" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="AA6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="AB6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AC6" s="5" t="s">
+      <c r="AD6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="AD6" s="5" t="s">
+      <c r="AE6" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="AE6" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="AF6" s="5" t="s">
         <v>10</v>
@@ -866,7 +866,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
